--- a/files/plantilla.xlsx
+++ b/files/plantilla.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f214367db2ac0a5b/Escritorio/EAFIT/P2/AST/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmigu\OneDrive\Escritorio\EAFIT\P2\AST\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D9A7B98-00FD-4506-974E-6E4D96C3FDE7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D0E271-852C-4A02-AD4B-0A712AA01BCB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{478EC7B7-07E0-4696-9C62-2774E0569F65}"/>
   </bookViews>
@@ -30,6 +30,41 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>Precio Fogon</t>
+  </si>
+  <si>
+    <t>Precio Transporte</t>
+  </si>
+  <si>
+    <t>Utilidad Planta</t>
+  </si>
+  <si>
+    <t>Plantas</t>
+  </si>
+  <si>
+    <t>Materiales</t>
+  </si>
+  <si>
+    <t>Distribuidora</t>
+  </si>
+  <si>
+    <t>Nit</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -49,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -57,12 +92,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,12 +474,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BB4345-17FB-4D33-97EA-88F3E5215505}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/files/plantilla.xlsx
+++ b/files/plantilla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmigu\OneDrive\Escritorio\EAFIT\P2\AST\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55403815-13EC-462B-A31E-7D82A045AEAC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AC2F8C-18D7-4F2F-A88B-931DAAD9FF58}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{478EC7B7-07E0-4696-9C62-2774E0569F65}"/>
   </bookViews>
@@ -498,7 +498,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -583,7 +583,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BB4345-17FB-4D33-97EA-88F3E5215505}">
   <dimension ref="A2:AW721"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
